--- a/PortMatrix.xlsx
+++ b/PortMatrix.xlsx
@@ -2988,9 +2988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6133,10 +6133,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O146" sqref="O146:Q146"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6146,7 +6146,7 @@
     <col min="3" max="3" width="9.7109375" style="34" customWidth="1"/>
     <col min="4" max="4" width="35.7109375" style="34" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" style="66" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="66" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="34" customWidth="1"/>
@@ -10695,10 +10695,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G91" sqref="G91"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12904,19 +12904,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F22" sqref="F22"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="34" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" style="34" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" style="34" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="34" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="34" customWidth="1"/>
     <col min="6" max="6" width="31.140625" style="66" customWidth="1"/>
     <col min="7" max="7" width="13.140625" style="34" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" style="34" customWidth="1"/>

--- a/PortMatrix.xlsx
+++ b/PortMatrix.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="692">
   <si>
     <t>Port No</t>
   </si>
@@ -874,9 +874,6 @@
     <t>Te1/1/1</t>
   </si>
   <si>
-    <t>LL</t>
-  </si>
-  <si>
     <t>Te2/1/1</t>
   </si>
   <si>
@@ -1069,78 +1066,48 @@
     <t>Fo1/2/1</t>
   </si>
   <si>
-    <t>LL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/1</t>
   </si>
   <si>
     <t>Fo1/2/2</t>
   </si>
   <si>
-    <t>LL IDF2 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/2</t>
   </si>
   <si>
     <t>Fo1/2/3</t>
   </si>
   <si>
-    <t>LL IDF3 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/3</t>
   </si>
   <si>
     <t>Fo1/2/4</t>
   </si>
   <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>1st FL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/4</t>
   </si>
   <si>
     <t>Fo1/2/5</t>
   </si>
   <si>
-    <t>1st FL IDF2 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/5</t>
   </si>
   <si>
     <t>Fo1/2/6</t>
   </si>
   <si>
-    <t>1st FL IDF3 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/6</t>
   </si>
   <si>
     <t>Fo1/2/7</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>2nd FL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/7</t>
   </si>
   <si>
     <t>Fo1/2/8</t>
   </si>
   <si>
-    <t>2nd FL IDF2 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/2/8</t>
   </si>
   <si>
@@ -1249,69 +1216,42 @@
     <t>Fo1/5/2</t>
   </si>
   <si>
-    <t>2nd FL IDF3 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/2</t>
   </si>
   <si>
     <t>Fo1/5/3</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>3rd FL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/3</t>
   </si>
   <si>
     <t>Fo1/5/4</t>
   </si>
   <si>
-    <t>3rd FL IDF2 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/4</t>
   </si>
   <si>
     <t>Fo1/5/5</t>
   </si>
   <si>
-    <t>3rd FL IDF3 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/5</t>
   </si>
   <si>
     <t>Fo1/5/6</t>
   </si>
   <si>
-    <t>4th</t>
-  </si>
-  <si>
-    <t>4th FL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/6</t>
   </si>
   <si>
     <t>Fo1/5/7</t>
   </si>
   <si>
-    <t>4th FL IDF2 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/7</t>
   </si>
   <si>
     <t>Fo1/5/8</t>
   </si>
   <si>
-    <t>4th FL IDF3 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/5/8</t>
   </si>
   <si>
@@ -1324,42 +1264,24 @@
     <t>Fo1/6/2</t>
   </si>
   <si>
-    <t>5th</t>
-  </si>
-  <si>
-    <t>5th FL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/6/2</t>
   </si>
   <si>
     <t>Fo1/6/3</t>
   </si>
   <si>
-    <t>5th FL IDF2 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/6/3</t>
   </si>
   <si>
     <t>Fo1/6/4</t>
   </si>
   <si>
-    <t>6th</t>
-  </si>
-  <si>
-    <t>6th FL IDF1 9300-1 Uplink 1</t>
-  </si>
-  <si>
     <t>Fo2/6/4</t>
   </si>
   <si>
     <t>Fo1/6/5</t>
   </si>
   <si>
-    <t>future</t>
-  </si>
-  <si>
     <t>Fo2/6/5</t>
   </si>
   <si>
@@ -1453,18 +1375,9 @@
     <t> </t>
   </si>
   <si>
-    <t>To 6807-2 E2/1/31</t>
-  </si>
-  <si>
-    <t>To 6807-2 E2/1/32</t>
-  </si>
-  <si>
     <t>Te1/1/33</t>
   </si>
   <si>
-    <t>TO-CORE VSS</t>
-  </si>
-  <si>
     <t>Te2/1/33</t>
   </si>
   <si>
@@ -1495,27 +1408,18 @@
     <t>Te1/1/38</t>
   </si>
   <si>
-    <t>To 6807-2 Fast hello</t>
-  </si>
-  <si>
     <t>Te2/1/38</t>
   </si>
   <si>
     <t>Te1/1/39</t>
   </si>
   <si>
-    <t>To 6807-2 E2/1/39</t>
-  </si>
-  <si>
     <t>Te2/1/39</t>
   </si>
   <si>
     <t>Te1/1/40</t>
   </si>
   <si>
-    <t>To 6807-2 E2/1/40</t>
-  </si>
-  <si>
     <t>Te2/1/40</t>
   </si>
   <si>
@@ -1528,9 +1432,6 @@
     <t>Fo1/1/42</t>
   </si>
   <si>
-    <t>To CORE VSS</t>
-  </si>
-  <si>
     <t>Fo2/1/42</t>
   </si>
   <si>
@@ -2182,34 +2083,34 @@
     <t>Te1/32</t>
   </si>
   <si>
-    <t>6940 Count</t>
-  </si>
-  <si>
     <t>CORE Side</t>
   </si>
   <si>
-    <t>CORE-6807 - 1 (DC1)</t>
-  </si>
-  <si>
-    <t>CORE-6807 - 2 (DC2)</t>
-  </si>
-  <si>
-    <t>WIRED-6807 - 2 (DC2)</t>
-  </si>
-  <si>
-    <t>WIRED-6807 - 1 (DC1)</t>
-  </si>
-  <si>
-    <t>WIRELESS-6807 - 1 (DC1)</t>
-  </si>
-  <si>
-    <t>WIRELESS-6807 - 2 (DC2)</t>
-  </si>
-  <si>
-    <t>SEC-6840 - 1 (DC1)</t>
-  </si>
-  <si>
-    <t>SEC-6840 - 2 (DC2)</t>
+    <t>VSS Count</t>
+  </si>
+  <si>
+    <t>SEC-VSS - 1 (DC1)</t>
+  </si>
+  <si>
+    <t>SEC-VSS- 2 (DC2)</t>
+  </si>
+  <si>
+    <t>WIRELESS-VSS- 1 (DC1)</t>
+  </si>
+  <si>
+    <t>WIRELESS-VSS - 2 (DC2)</t>
+  </si>
+  <si>
+    <t>WIRED-VSS - 1 (DC1)</t>
+  </si>
+  <si>
+    <t>WIRED-VSS - 2 (DC2)</t>
+  </si>
+  <si>
+    <t>CORE-VSS - 1 (DC1)</t>
+  </si>
+  <si>
+    <t>CORE-VSS - 2 (DC2)</t>
   </si>
 </sst>
 </file>
@@ -2990,7 +2891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3016,7 +2917,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="128" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
       <c r="B1" s="129"/>
       <c r="C1" s="129"/>
@@ -3026,7 +2927,7 @@
       <c r="G1" s="129"/>
       <c r="H1" s="130"/>
       <c r="J1" s="128" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="K1" s="129"/>
       <c r="L1" s="129"/>
@@ -6133,10 +6034,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W164"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="O146" sqref="O146:Q146"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6167,7 +6068,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -6180,7 +6081,7 @@
       <c r="J1" s="132"/>
       <c r="K1" s="134"/>
       <c r="M1" s="131" t="s">
-        <v>719</v>
+        <v>689</v>
       </c>
       <c r="N1" s="132"/>
       <c r="O1" s="132"/>
@@ -6197,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>277</v>
@@ -6218,7 +6119,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="J2" s="35" t="s">
         <v>6</v>
@@ -6230,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="35" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="O2" s="35" t="s">
         <v>1</v>
@@ -6239,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="R2" s="35" t="s">
         <v>9</v>
@@ -6248,7 +6149,7 @@
         <v>5</v>
       </c>
       <c r="T2" s="35" t="s">
-        <v>501</v>
+        <v>468</v>
       </c>
       <c r="U2" s="35" t="s">
         <v>10</v>
@@ -6273,7 +6174,7 @@
       <c r="K3" s="39"/>
       <c r="L3" s="40"/>
       <c r="M3" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N3" s="37"/>
       <c r="O3" s="38"/>
@@ -6287,7 +6188,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -6301,7 +6202,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="41"/>
       <c r="M4" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
@@ -6315,7 +6216,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -6329,7 +6230,7 @@
       <c r="K5" s="43"/>
       <c r="L5" s="40"/>
       <c r="M5" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N5" s="37"/>
       <c r="O5" s="37"/>
@@ -6343,7 +6244,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -6357,7 +6258,7 @@
       <c r="K6" s="43"/>
       <c r="L6" s="41"/>
       <c r="M6" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N6" s="37"/>
       <c r="O6" s="37"/>
@@ -6371,7 +6272,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -6385,7 +6286,7 @@
       <c r="K7" s="43"/>
       <c r="L7" s="40"/>
       <c r="M7" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N7" s="37"/>
       <c r="O7" s="37"/>
@@ -6399,7 +6300,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -6413,7 +6314,7 @@
       <c r="K8" s="39"/>
       <c r="L8" s="41"/>
       <c r="M8" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N8" s="37"/>
       <c r="O8" s="37"/>
@@ -6427,7 +6328,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
@@ -6441,7 +6342,7 @@
       <c r="K9" s="50"/>
       <c r="L9" s="41"/>
       <c r="M9" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N9" s="47"/>
       <c r="O9" s="37"/>
@@ -6455,7 +6356,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -6469,7 +6370,7 @@
       <c r="K10" s="37"/>
       <c r="L10" s="37"/>
       <c r="M10" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="37"/>
@@ -6483,7 +6384,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -6497,7 +6398,7 @@
       <c r="K11" s="44"/>
       <c r="L11" s="44"/>
       <c r="M11" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N11" s="37"/>
       <c r="O11" s="37"/>
@@ -6511,7 +6412,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -6525,7 +6426,7 @@
       <c r="K12" s="44"/>
       <c r="L12" s="44"/>
       <c r="M12" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N12" s="37"/>
       <c r="O12" s="37"/>
@@ -6539,7 +6440,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -6553,7 +6454,7 @@
       <c r="K13" s="44"/>
       <c r="L13" s="44"/>
       <c r="M13" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N13" s="37"/>
       <c r="O13" s="37"/>
@@ -6567,7 +6468,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -6581,7 +6482,7 @@
       <c r="K14" s="44"/>
       <c r="L14" s="44"/>
       <c r="M14" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N14" s="37"/>
       <c r="O14" s="37"/>
@@ -6595,7 +6496,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -6609,7 +6510,7 @@
       <c r="K15" s="44"/>
       <c r="L15" s="44"/>
       <c r="M15" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
@@ -6623,7 +6524,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -6637,7 +6538,7 @@
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
@@ -6651,7 +6552,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -6665,7 +6566,7 @@
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
       <c r="M17" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N17" s="37"/>
       <c r="O17" s="37"/>
@@ -6679,7 +6580,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -6693,7 +6594,7 @@
       <c r="K18" s="44"/>
       <c r="L18" s="44"/>
       <c r="M18" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N18" s="37"/>
       <c r="O18" s="37"/>
@@ -6707,7 +6608,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -6721,7 +6622,7 @@
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
       <c r="M19" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N19" s="37"/>
       <c r="O19" s="37"/>
@@ -6735,7 +6636,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -6749,7 +6650,7 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
@@ -6763,7 +6664,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -6777,7 +6678,7 @@
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N21" s="37"/>
       <c r="O21" s="37"/>
@@ -6791,7 +6692,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -6805,7 +6706,7 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N22" s="37"/>
       <c r="O22" s="37"/>
@@ -6819,7 +6720,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -6833,7 +6734,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N23" s="37"/>
       <c r="O23" s="37"/>
@@ -6847,7 +6748,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -6861,7 +6762,7 @@
       <c r="K24" s="44"/>
       <c r="L24" s="44"/>
       <c r="M24" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N24" s="37"/>
       <c r="O24" s="37"/>
@@ -6875,7 +6776,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -6889,7 +6790,7 @@
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N25" s="37"/>
       <c r="O25" s="44"/>
@@ -6903,7 +6804,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -6917,7 +6818,7 @@
       <c r="K26" s="44"/>
       <c r="L26" s="44"/>
       <c r="M26" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N26" s="37"/>
       <c r="O26" s="44"/>
@@ -6931,7 +6832,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -6945,7 +6846,7 @@
       <c r="K27" s="44"/>
       <c r="L27" s="44"/>
       <c r="M27" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N27" s="37"/>
       <c r="O27" s="44"/>
@@ -6959,7 +6860,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -6973,7 +6874,7 @@
       <c r="K28" s="44"/>
       <c r="L28" s="44"/>
       <c r="M28" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="44"/>
@@ -6987,7 +6888,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -7001,7 +6902,7 @@
       <c r="K29" s="44"/>
       <c r="L29" s="44"/>
       <c r="M29" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="N29" s="37"/>
       <c r="O29" s="44"/>
@@ -7015,7 +6916,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -7029,7 +6930,7 @@
       <c r="K30" s="44"/>
       <c r="L30" s="44"/>
       <c r="M30" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N30" s="37"/>
       <c r="O30" s="44"/>
@@ -7043,7 +6944,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
@@ -7057,7 +6958,7 @@
       <c r="K31" s="44"/>
       <c r="L31" s="44"/>
       <c r="M31" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="N31" s="37"/>
       <c r="O31" s="44"/>
@@ -7071,7 +6972,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
@@ -7085,7 +6986,7 @@
       <c r="K32" s="44"/>
       <c r="L32" s="44"/>
       <c r="M32" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N32" s="37"/>
       <c r="O32" s="44"/>
@@ -7099,7 +7000,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="37"/>
       <c r="C33" s="52"/>
@@ -7113,7 +7014,7 @@
       <c r="K33" s="53"/>
       <c r="L33" s="44"/>
       <c r="M33" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="N33" s="37"/>
       <c r="O33" s="54"/>
@@ -7127,7 +7028,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" s="37"/>
       <c r="C34" s="52"/>
@@ -7141,7 +7042,7 @@
       <c r="K34" s="58"/>
       <c r="L34" s="44"/>
       <c r="M34" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="N34" s="37"/>
       <c r="O34" s="59"/>
@@ -7155,7 +7056,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="B35" s="52"/>
       <c r="C35" s="37"/>
@@ -7169,7 +7070,7 @@
       <c r="K35" s="61"/>
       <c r="L35" s="41"/>
       <c r="M35" s="52" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="N35" s="52"/>
       <c r="O35" s="38"/>
@@ -7183,7 +7084,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="B36" s="37"/>
       <c r="C36" s="37"/>
@@ -7197,7 +7098,7 @@
       <c r="K36" s="39"/>
       <c r="L36" s="62"/>
       <c r="M36" s="52" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="N36" s="37"/>
       <c r="O36" s="37"/>
@@ -7211,7 +7112,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="B37" s="37"/>
       <c r="C37" s="37"/>
@@ -7225,7 +7126,7 @@
       <c r="K37" s="39"/>
       <c r="L37" s="62"/>
       <c r="M37" s="52" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="N37" s="37"/>
       <c r="O37" s="37"/>
@@ -7239,7 +7140,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="B38" s="37"/>
       <c r="C38" s="37"/>
@@ -7253,7 +7154,7 @@
       <c r="K38" s="39"/>
       <c r="L38" s="62"/>
       <c r="M38" s="52" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
@@ -7267,7 +7168,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="B39" s="37"/>
       <c r="C39" s="37"/>
@@ -7281,7 +7182,7 @@
       <c r="K39" s="39"/>
       <c r="L39" s="62"/>
       <c r="M39" s="52" t="s">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -7295,7 +7196,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="B40" s="37"/>
       <c r="C40" s="37"/>
@@ -7309,7 +7210,7 @@
       <c r="K40" s="39"/>
       <c r="L40" s="62"/>
       <c r="M40" s="52" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
@@ -7323,7 +7224,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -7337,7 +7238,7 @@
       <c r="K41" s="50"/>
       <c r="L41" s="41"/>
       <c r="M41" s="52" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="N41" s="47"/>
       <c r="O41" s="37"/>
@@ -7351,7 +7252,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
-        <v>517</v>
+        <v>484</v>
       </c>
       <c r="B42" s="37"/>
       <c r="C42" s="37"/>
@@ -7365,7 +7266,7 @@
       <c r="K42" s="39"/>
       <c r="L42" s="37"/>
       <c r="M42" s="52" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
@@ -7379,7 +7280,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="B43" s="37"/>
       <c r="C43" s="37"/>
@@ -7393,7 +7294,7 @@
       <c r="K43" s="44"/>
       <c r="L43" s="44"/>
       <c r="M43" s="52" t="s">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="N43" s="37"/>
       <c r="O43" s="37"/>
@@ -7407,7 +7308,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -7421,7 +7322,7 @@
       <c r="K44" s="44"/>
       <c r="L44" s="44"/>
       <c r="M44" s="52" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="N44" s="37"/>
       <c r="O44" s="37"/>
@@ -7435,7 +7336,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -7449,7 +7350,7 @@
       <c r="K45" s="44"/>
       <c r="L45" s="44"/>
       <c r="M45" s="52" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="N45" s="37"/>
       <c r="O45" s="37"/>
@@ -7463,7 +7364,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -7477,7 +7378,7 @@
       <c r="K46" s="44"/>
       <c r="L46" s="44"/>
       <c r="M46" s="52" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="N46" s="37"/>
       <c r="O46" s="37"/>
@@ -7491,7 +7392,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -7505,7 +7406,7 @@
       <c r="K47" s="44"/>
       <c r="L47" s="44"/>
       <c r="M47" s="52" t="s">
-        <v>528</v>
+        <v>495</v>
       </c>
       <c r="N47" s="37"/>
       <c r="O47" s="37"/>
@@ -7519,7 +7420,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>529</v>
+        <v>496</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -7533,7 +7434,7 @@
       <c r="K48" s="44"/>
       <c r="L48" s="44"/>
       <c r="M48" s="52" t="s">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="N48" s="37"/>
       <c r="O48" s="37"/>
@@ -7547,7 +7448,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -7561,7 +7462,7 @@
       <c r="K49" s="44"/>
       <c r="L49" s="44"/>
       <c r="M49" s="52" t="s">
-        <v>532</v>
+        <v>499</v>
       </c>
       <c r="N49" s="37"/>
       <c r="O49" s="37"/>
@@ -7575,7 +7476,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -7589,7 +7490,7 @@
       <c r="K50" s="44"/>
       <c r="L50" s="44"/>
       <c r="M50" s="52" t="s">
-        <v>534</v>
+        <v>501</v>
       </c>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
@@ -7603,7 +7504,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="52" t="s">
-        <v>535</v>
+        <v>502</v>
       </c>
       <c r="B51" s="37"/>
       <c r="C51" s="37"/>
@@ -7617,7 +7518,7 @@
       <c r="K51" s="44"/>
       <c r="L51" s="44"/>
       <c r="M51" s="52" t="s">
-        <v>536</v>
+        <v>503</v>
       </c>
       <c r="N51" s="37"/>
       <c r="O51" s="37"/>
@@ -7631,7 +7532,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
-        <v>537</v>
+        <v>504</v>
       </c>
       <c r="B52" s="37"/>
       <c r="C52" s="37"/>
@@ -7645,7 +7546,7 @@
       <c r="K52" s="44"/>
       <c r="L52" s="44"/>
       <c r="M52" s="52" t="s">
-        <v>538</v>
+        <v>505</v>
       </c>
       <c r="N52" s="37"/>
       <c r="O52" s="37"/>
@@ -7659,7 +7560,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
-        <v>539</v>
+        <v>506</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -7673,7 +7574,7 @@
       <c r="K53" s="44"/>
       <c r="L53" s="44"/>
       <c r="M53" s="52" t="s">
-        <v>540</v>
+        <v>507</v>
       </c>
       <c r="N53" s="37"/>
       <c r="O53" s="37"/>
@@ -7687,7 +7588,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
-        <v>541</v>
+        <v>508</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -7701,7 +7602,7 @@
       <c r="K54" s="44"/>
       <c r="L54" s="44"/>
       <c r="M54" s="52" t="s">
-        <v>542</v>
+        <v>509</v>
       </c>
       <c r="N54" s="37"/>
       <c r="O54" s="37"/>
@@ -7715,7 +7616,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
-        <v>543</v>
+        <v>510</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -7729,7 +7630,7 @@
       <c r="K55" s="44"/>
       <c r="L55" s="44"/>
       <c r="M55" s="52" t="s">
-        <v>544</v>
+        <v>511</v>
       </c>
       <c r="N55" s="37"/>
       <c r="O55" s="37"/>
@@ -7743,7 +7644,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
-        <v>545</v>
+        <v>512</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -7757,7 +7658,7 @@
       <c r="K56" s="44"/>
       <c r="L56" s="44"/>
       <c r="M56" s="52" t="s">
-        <v>546</v>
+        <v>513</v>
       </c>
       <c r="N56" s="37"/>
       <c r="O56" s="37"/>
@@ -7771,7 +7672,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>547</v>
+        <v>514</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -7785,7 +7686,7 @@
       <c r="K57" s="44"/>
       <c r="L57" s="44"/>
       <c r="M57" s="52" t="s">
-        <v>548</v>
+        <v>515</v>
       </c>
       <c r="N57" s="37"/>
       <c r="O57" s="44"/>
@@ -7799,7 +7700,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>549</v>
+        <v>516</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -7813,7 +7714,7 @@
       <c r="K58" s="44"/>
       <c r="L58" s="44"/>
       <c r="M58" s="52" t="s">
-        <v>550</v>
+        <v>517</v>
       </c>
       <c r="N58" s="37"/>
       <c r="O58" s="44"/>
@@ -7827,7 +7728,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -7841,7 +7742,7 @@
       <c r="K59" s="44"/>
       <c r="L59" s="44"/>
       <c r="M59" s="52" t="s">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="N59" s="37"/>
       <c r="O59" s="44"/>
@@ -7855,7 +7756,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>553</v>
+        <v>520</v>
       </c>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -7869,7 +7770,7 @@
       <c r="K60" s="44"/>
       <c r="L60" s="44"/>
       <c r="M60" s="52" t="s">
-        <v>554</v>
+        <v>521</v>
       </c>
       <c r="N60" s="37"/>
       <c r="O60" s="44"/>
@@ -7883,7 +7784,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
-        <v>555</v>
+        <v>522</v>
       </c>
       <c r="B61" s="37"/>
       <c r="C61" s="37"/>
@@ -7897,7 +7798,7 @@
       <c r="K61" s="44"/>
       <c r="L61" s="44"/>
       <c r="M61" s="52" t="s">
-        <v>556</v>
+        <v>523</v>
       </c>
       <c r="N61" s="37"/>
       <c r="O61" s="44"/>
@@ -7911,7 +7812,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
-        <v>557</v>
+        <v>524</v>
       </c>
       <c r="B62" s="37"/>
       <c r="C62" s="37"/>
@@ -7925,7 +7826,7 @@
       <c r="K62" s="44"/>
       <c r="L62" s="44"/>
       <c r="M62" s="52" t="s">
-        <v>558</v>
+        <v>525</v>
       </c>
       <c r="N62" s="37"/>
       <c r="O62" s="44"/>
@@ -7939,7 +7840,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="B63" s="37"/>
       <c r="C63" s="37"/>
@@ -7953,7 +7854,7 @@
       <c r="K63" s="44"/>
       <c r="L63" s="44"/>
       <c r="M63" s="52" t="s">
-        <v>560</v>
+        <v>527</v>
       </c>
       <c r="N63" s="37"/>
       <c r="O63" s="44"/>
@@ -7967,7 +7868,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
-        <v>561</v>
+        <v>528</v>
       </c>
       <c r="B64" s="37"/>
       <c r="C64" s="37"/>
@@ -7981,7 +7882,7 @@
       <c r="K64" s="44"/>
       <c r="L64" s="44"/>
       <c r="M64" s="52" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="N64" s="37"/>
       <c r="O64" s="44"/>
@@ -7995,7 +7896,7 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B65" s="37"/>
       <c r="C65" s="37"/>
@@ -8009,7 +7910,7 @@
       <c r="K65" s="44"/>
       <c r="L65" s="44"/>
       <c r="M65" s="52" t="s">
-        <v>564</v>
+        <v>531</v>
       </c>
       <c r="N65" s="37"/>
       <c r="O65" s="44"/>
@@ -8023,7 +7924,7 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
-        <v>565</v>
+        <v>532</v>
       </c>
       <c r="B66" s="52"/>
       <c r="C66" s="63"/>
@@ -8037,7 +7938,7 @@
       <c r="K66" s="64"/>
       <c r="L66" s="64"/>
       <c r="M66" s="52" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="N66" s="65"/>
       <c r="O66" s="64"/>
@@ -8051,20 +7952,20 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B67" s="52"/>
       <c r="L67" s="41"/>
       <c r="M67" s="52" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N67" s="65" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
@@ -8078,7 +7979,7 @@
       <c r="K68" s="39"/>
       <c r="L68" s="41"/>
       <c r="M68" s="37" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
@@ -8092,7 +7993,7 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B69" s="37"/>
       <c r="C69" s="37"/>
@@ -8106,7 +8007,7 @@
       <c r="K69" s="39"/>
       <c r="L69" s="41"/>
       <c r="M69" s="37" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="N69" s="37"/>
       <c r="O69" s="37"/>
@@ -8120,7 +8021,7 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B70" s="37"/>
       <c r="C70" s="37"/>
@@ -8134,7 +8035,7 @@
       <c r="K70" s="39"/>
       <c r="L70" s="41"/>
       <c r="M70" s="37" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="N70" s="37"/>
       <c r="O70" s="37"/>
@@ -8148,7 +8049,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="37"/>
@@ -8162,7 +8063,7 @@
       <c r="K71" s="39"/>
       <c r="L71" s="41"/>
       <c r="M71" s="37" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="N71" s="37"/>
       <c r="O71" s="37"/>
@@ -8176,7 +8077,7 @@
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
@@ -8190,7 +8091,7 @@
       <c r="K72" s="39"/>
       <c r="L72" s="41"/>
       <c r="M72" s="37" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="N72" s="37"/>
       <c r="O72" s="37"/>
@@ -8204,7 +8105,7 @@
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B73" s="37"/>
       <c r="C73" s="37"/>
@@ -8218,7 +8119,7 @@
       <c r="K73" s="39"/>
       <c r="L73" s="41"/>
       <c r="M73" s="37" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="N73" s="37"/>
       <c r="O73" s="37"/>
@@ -8232,7 +8133,7 @@
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="37"/>
@@ -8246,7 +8147,7 @@
       <c r="K74" s="39"/>
       <c r="L74" s="41"/>
       <c r="M74" s="37" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="N74" s="37"/>
       <c r="O74" s="37"/>
@@ -8317,7 +8218,7 @@
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B77" s="37"/>
       <c r="C77" s="74"/>
@@ -8331,7 +8232,7 @@
       <c r="K77" s="76"/>
       <c r="L77" s="41"/>
       <c r="M77" s="37" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="N77" s="37"/>
       <c r="O77" s="74"/>
@@ -8345,7 +8246,7 @@
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
@@ -8359,7 +8260,7 @@
       <c r="K78" s="39"/>
       <c r="L78" s="41"/>
       <c r="M78" s="37" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="N78" s="37"/>
       <c r="O78" s="42"/>
@@ -8373,7 +8274,7 @@
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -8387,7 +8288,7 @@
       <c r="K79" s="39"/>
       <c r="L79" s="41"/>
       <c r="M79" s="37" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="N79" s="37"/>
       <c r="O79" s="42"/>
@@ -8401,7 +8302,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -8415,7 +8316,7 @@
       <c r="K80" s="39"/>
       <c r="L80" s="41"/>
       <c r="M80" s="37" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="N80" s="37"/>
       <c r="O80" s="42"/>
@@ -8429,7 +8330,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
@@ -8443,7 +8344,7 @@
       <c r="K81" s="39"/>
       <c r="L81" s="41"/>
       <c r="M81" s="37" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="N81" s="37"/>
       <c r="O81" s="42"/>
@@ -8457,7 +8358,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -8471,7 +8372,7 @@
       <c r="K82" s="39"/>
       <c r="L82" s="41"/>
       <c r="M82" s="37" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="N82" s="37"/>
       <c r="O82" s="42"/>
@@ -8485,7 +8386,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -8499,7 +8400,7 @@
       <c r="K83" s="39"/>
       <c r="L83" s="41"/>
       <c r="M83" s="37" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="N83" s="37"/>
       <c r="O83" s="37"/>
@@ -8513,7 +8414,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -8527,7 +8428,7 @@
       <c r="K84" s="39"/>
       <c r="L84" s="41"/>
       <c r="M84" s="37" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="N84" s="37"/>
       <c r="O84" s="37"/>
@@ -8597,7 +8498,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="37" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B87" s="37"/>
       <c r="C87" s="52"/>
@@ -8611,7 +8512,7 @@
       <c r="K87" s="81"/>
       <c r="L87" s="41"/>
       <c r="M87" s="37" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="N87" s="37"/>
       <c r="O87" s="78"/>
@@ -8625,7 +8526,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="37" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B88" s="37"/>
       <c r="C88" s="52"/>
@@ -8639,7 +8540,7 @@
       <c r="K88" s="81"/>
       <c r="L88" s="41"/>
       <c r="M88" s="37" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="N88" s="37"/>
       <c r="O88" s="78"/>
@@ -8653,7 +8554,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
-        <v>567</v>
+        <v>534</v>
       </c>
       <c r="B89" s="37"/>
       <c r="C89" s="52"/>
@@ -8667,7 +8568,7 @@
       <c r="K89" s="81"/>
       <c r="L89" s="41"/>
       <c r="M89" s="37" t="s">
-        <v>568</v>
+        <v>535</v>
       </c>
       <c r="N89" s="37"/>
       <c r="O89" s="78"/>
@@ -8681,7 +8582,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
-        <v>569</v>
+        <v>536</v>
       </c>
       <c r="B90" s="37"/>
       <c r="C90" s="52"/>
@@ -8695,7 +8596,7 @@
       <c r="K90" s="81"/>
       <c r="L90" s="41"/>
       <c r="M90" s="37" t="s">
-        <v>570</v>
+        <v>537</v>
       </c>
       <c r="N90" s="37"/>
       <c r="O90" s="78"/>
@@ -8709,7 +8610,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
-        <v>571</v>
+        <v>538</v>
       </c>
       <c r="B91" s="37"/>
       <c r="C91" s="37"/>
@@ -8723,7 +8624,7 @@
       <c r="K91" s="39"/>
       <c r="L91" s="41"/>
       <c r="M91" s="37" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="N91" s="37"/>
       <c r="O91" s="37"/>
@@ -8737,7 +8638,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="B92" s="37"/>
       <c r="C92" s="37"/>
@@ -8751,7 +8652,7 @@
       <c r="K92" s="39"/>
       <c r="L92" s="41"/>
       <c r="M92" s="37" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="N92" s="37"/>
       <c r="O92" s="42"/>
@@ -8765,7 +8666,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="B93" s="37"/>
       <c r="C93" s="37"/>
@@ -8779,7 +8680,7 @@
       <c r="K93" s="39"/>
       <c r="L93" s="41"/>
       <c r="M93" s="37" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="N93" s="37"/>
       <c r="O93" s="42"/>
@@ -8793,7 +8694,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="37" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="B94" s="37"/>
       <c r="C94" s="37"/>
@@ -8807,7 +8708,7 @@
       <c r="K94" s="39"/>
       <c r="L94" s="41"/>
       <c r="M94" s="37" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="N94" s="37"/>
       <c r="O94" s="42"/>
@@ -8821,7 +8722,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="37" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="B95" s="37"/>
       <c r="C95" s="37"/>
@@ -8835,7 +8736,7 @@
       <c r="K95" s="37"/>
       <c r="L95" s="44"/>
       <c r="M95" s="37" t="s">
-        <v>580</v>
+        <v>547</v>
       </c>
       <c r="N95" s="37"/>
       <c r="O95" s="37"/>
@@ -8849,7 +8750,7 @@
     </row>
     <row r="96" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="37" t="s">
-        <v>581</v>
+        <v>548</v>
       </c>
       <c r="B96" s="37"/>
       <c r="C96" s="37"/>
@@ -8863,7 +8764,7 @@
       <c r="K96" s="37"/>
       <c r="L96" s="44"/>
       <c r="M96" s="37" t="s">
-        <v>582</v>
+        <v>549</v>
       </c>
       <c r="N96" s="37"/>
       <c r="O96" s="37"/>
@@ -8877,7 +8778,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="37" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="B97" s="37"/>
       <c r="C97" s="37"/>
@@ -8891,7 +8792,7 @@
       <c r="K97" s="37"/>
       <c r="L97" s="44"/>
       <c r="M97" s="37" t="s">
-        <v>584</v>
+        <v>551</v>
       </c>
       <c r="N97" s="37"/>
       <c r="O97" s="37"/>
@@ -8905,7 +8806,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="37" t="s">
-        <v>585</v>
+        <v>552</v>
       </c>
       <c r="B98" s="37"/>
       <c r="C98" s="37"/>
@@ -8919,7 +8820,7 @@
       <c r="K98" s="37"/>
       <c r="L98" s="41"/>
       <c r="M98" s="37" t="s">
-        <v>586</v>
+        <v>553</v>
       </c>
       <c r="N98" s="37"/>
       <c r="O98" s="37"/>
@@ -8933,7 +8834,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="37" t="s">
-        <v>587</v>
+        <v>554</v>
       </c>
       <c r="B99" s="37"/>
       <c r="C99" s="37"/>
@@ -8947,7 +8848,7 @@
       <c r="K99" s="37"/>
       <c r="L99" s="41"/>
       <c r="M99" s="37" t="s">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="N99" s="37"/>
       <c r="O99" s="37"/>
@@ -8961,7 +8862,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="37" t="s">
-        <v>589</v>
+        <v>556</v>
       </c>
       <c r="B100" s="37"/>
       <c r="C100" s="37"/>
@@ -8975,7 +8876,7 @@
       <c r="K100" s="37"/>
       <c r="L100" s="41"/>
       <c r="M100" s="37" t="s">
-        <v>590</v>
+        <v>557</v>
       </c>
       <c r="N100" s="37"/>
       <c r="O100" s="37"/>
@@ -8989,7 +8890,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="37" t="s">
-        <v>591</v>
+        <v>558</v>
       </c>
       <c r="B101" s="37"/>
       <c r="C101" s="37"/>
@@ -9003,7 +8904,7 @@
       <c r="K101" s="37"/>
       <c r="L101" s="41"/>
       <c r="M101" s="37" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="N101" s="37"/>
       <c r="O101" s="37"/>
@@ -9017,7 +8918,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="47" t="s">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="B102" s="47"/>
       <c r="C102" s="37"/>
@@ -9031,7 +8932,7 @@
       <c r="K102" s="47"/>
       <c r="L102" s="41"/>
       <c r="M102" s="47" t="s">
-        <v>594</v>
+        <v>561</v>
       </c>
       <c r="N102" s="47"/>
       <c r="O102" s="37"/>
@@ -9045,7 +8946,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="37" t="s">
-        <v>595</v>
+        <v>562</v>
       </c>
       <c r="B103" s="37"/>
       <c r="C103" s="37"/>
@@ -9059,7 +8960,7 @@
       <c r="K103" s="44"/>
       <c r="L103" s="44"/>
       <c r="M103" s="37" t="s">
-        <v>596</v>
+        <v>563</v>
       </c>
       <c r="N103" s="37"/>
       <c r="O103" s="37"/>
@@ -9073,7 +8974,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="37" t="s">
-        <v>597</v>
+        <v>564</v>
       </c>
       <c r="B104" s="37"/>
       <c r="C104" s="37"/>
@@ -9087,7 +8988,7 @@
       <c r="K104" s="44"/>
       <c r="L104" s="44"/>
       <c r="M104" s="37" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="N104" s="37"/>
       <c r="O104" s="37"/>
@@ -9101,7 +9002,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="37" t="s">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
@@ -9115,7 +9016,7 @@
       <c r="K105" s="44"/>
       <c r="L105" s="44"/>
       <c r="M105" s="37" t="s">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="N105" s="37"/>
       <c r="O105" s="37"/>
@@ -9129,7 +9030,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="37" t="s">
-        <v>601</v>
+        <v>568</v>
       </c>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
@@ -9143,7 +9044,7 @@
       <c r="K106" s="44"/>
       <c r="L106" s="44"/>
       <c r="M106" s="37" t="s">
-        <v>602</v>
+        <v>569</v>
       </c>
       <c r="N106" s="37"/>
       <c r="O106" s="37"/>
@@ -9157,7 +9058,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="37" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B107" s="37"/>
       <c r="C107" s="37"/>
@@ -9171,7 +9072,7 @@
       <c r="K107" s="44"/>
       <c r="L107" s="44"/>
       <c r="M107" s="37" t="s">
-        <v>604</v>
+        <v>571</v>
       </c>
       <c r="N107" s="37"/>
       <c r="O107" s="37"/>
@@ -9185,7 +9086,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="37" t="s">
-        <v>605</v>
+        <v>572</v>
       </c>
       <c r="B108" s="37"/>
       <c r="C108" s="37"/>
@@ -9199,7 +9100,7 @@
       <c r="K108" s="44"/>
       <c r="L108" s="44"/>
       <c r="M108" s="37" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="N108" s="37"/>
       <c r="O108" s="37"/>
@@ -9213,7 +9114,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="37" t="s">
-        <v>607</v>
+        <v>574</v>
       </c>
       <c r="B109" s="37"/>
       <c r="C109" s="37"/>
@@ -9227,7 +9128,7 @@
       <c r="K109" s="44"/>
       <c r="L109" s="44"/>
       <c r="M109" s="37" t="s">
-        <v>608</v>
+        <v>575</v>
       </c>
       <c r="N109" s="37"/>
       <c r="O109" s="37"/>
@@ -9241,7 +9142,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="37" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="B110" s="37"/>
       <c r="C110" s="37"/>
@@ -9255,7 +9156,7 @@
       <c r="K110" s="44"/>
       <c r="L110" s="44"/>
       <c r="M110" s="37" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="N110" s="37"/>
       <c r="O110" s="37"/>
@@ -9269,7 +9170,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="37" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="B111" s="37"/>
       <c r="C111" s="37"/>
@@ -9283,7 +9184,7 @@
       <c r="K111" s="44"/>
       <c r="L111" s="44"/>
       <c r="M111" s="37" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="N111" s="37"/>
       <c r="O111" s="37"/>
@@ -9297,7 +9198,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="37" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="B112" s="37"/>
       <c r="C112" s="37"/>
@@ -9311,7 +9212,7 @@
       <c r="K112" s="44"/>
       <c r="L112" s="44"/>
       <c r="M112" s="37" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="N112" s="37"/>
       <c r="O112" s="37"/>
@@ -9325,7 +9226,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="37" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="B113" s="37"/>
       <c r="C113" s="37"/>
@@ -9339,7 +9240,7 @@
       <c r="K113" s="44"/>
       <c r="L113" s="44"/>
       <c r="M113" s="37" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="N113" s="37"/>
       <c r="O113" s="37"/>
@@ -9353,7 +9254,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="37" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="B114" s="37"/>
       <c r="C114" s="37"/>
@@ -9367,7 +9268,7 @@
       <c r="K114" s="44"/>
       <c r="L114" s="44"/>
       <c r="M114" s="37" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="N114" s="37"/>
       <c r="O114" s="37"/>
@@ -9381,7 +9282,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="37" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="B115" s="37"/>
       <c r="C115" s="37"/>
@@ -9395,7 +9296,7 @@
       <c r="K115" s="44"/>
       <c r="L115" s="44"/>
       <c r="M115" s="37" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="N115" s="37"/>
       <c r="O115" s="44"/>
@@ -9409,7 +9310,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="37" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -9423,7 +9324,7 @@
       <c r="K116" s="44"/>
       <c r="L116" s="44"/>
       <c r="M116" s="37" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="N116" s="37"/>
       <c r="O116" s="44"/>
@@ -9437,7 +9338,7 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="37" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="B117" s="37"/>
       <c r="C117" s="37"/>
@@ -9451,7 +9352,7 @@
       <c r="K117" s="44"/>
       <c r="L117" s="44"/>
       <c r="M117" s="37" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="N117" s="37"/>
       <c r="O117" s="44"/>
@@ -9465,7 +9366,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="37" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="B118" s="37"/>
       <c r="C118" s="37"/>
@@ -9479,7 +9380,7 @@
       <c r="K118" s="44"/>
       <c r="L118" s="44"/>
       <c r="M118" s="37" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="N118" s="37"/>
       <c r="O118" s="44"/>
@@ -9493,7 +9394,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="37" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="B119" s="37"/>
       <c r="C119" s="37"/>
@@ -9507,7 +9408,7 @@
       <c r="K119" s="44"/>
       <c r="L119" s="44"/>
       <c r="M119" s="37" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="N119" s="37"/>
       <c r="O119" s="44"/>
@@ -9521,7 +9422,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="37" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="B120" s="37"/>
       <c r="C120" s="37"/>
@@ -9535,7 +9436,7 @@
       <c r="K120" s="44"/>
       <c r="L120" s="44"/>
       <c r="M120" s="37" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="N120" s="37"/>
       <c r="O120" s="44"/>
@@ -9549,7 +9450,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="37" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="B121" s="37"/>
       <c r="C121" s="37"/>
@@ -9563,7 +9464,7 @@
       <c r="K121" s="44"/>
       <c r="L121" s="44"/>
       <c r="M121" s="37" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="N121" s="37"/>
       <c r="O121" s="44"/>
@@ -9577,7 +9478,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="37" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="B122" s="37"/>
       <c r="C122" s="37"/>
@@ -9591,7 +9492,7 @@
       <c r="K122" s="44"/>
       <c r="L122" s="44"/>
       <c r="M122" s="37" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="N122" s="37"/>
       <c r="O122" s="44"/>
@@ -9605,7 +9506,7 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="37" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="B123" s="37"/>
       <c r="C123" s="37"/>
@@ -9619,7 +9520,7 @@
       <c r="K123" s="44"/>
       <c r="L123" s="44"/>
       <c r="M123" s="37" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="N123" s="37"/>
       <c r="O123" s="44"/>
@@ -9633,7 +9534,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="37" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="B124" s="37"/>
       <c r="C124" s="37"/>
@@ -9647,7 +9548,7 @@
       <c r="K124" s="44"/>
       <c r="L124" s="44"/>
       <c r="M124" s="37" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="N124" s="37"/>
       <c r="O124" s="44"/>
@@ -9661,7 +9562,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="37" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="B125" s="37"/>
       <c r="C125" s="37"/>
@@ -9675,7 +9576,7 @@
       <c r="K125" s="44"/>
       <c r="L125" s="44"/>
       <c r="M125" s="37" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="N125" s="37"/>
       <c r="O125" s="44"/>
@@ -9689,7 +9590,7 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="37" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="B126" s="37"/>
       <c r="C126" s="37"/>
@@ -9703,7 +9604,7 @@
       <c r="K126" s="44"/>
       <c r="L126" s="44"/>
       <c r="M126" s="37" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="N126" s="37"/>
       <c r="O126" s="44"/>
@@ -9717,7 +9618,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="52" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="B127" s="52"/>
       <c r="C127" s="37"/>
@@ -9731,7 +9632,7 @@
       <c r="K127" s="52"/>
       <c r="L127" s="41"/>
       <c r="M127" s="52" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="N127" s="52"/>
       <c r="O127" s="37"/>
@@ -9745,7 +9646,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="37" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="B128" s="37"/>
       <c r="C128" s="37"/>
@@ -9759,7 +9660,7 @@
       <c r="K128" s="37"/>
       <c r="L128" s="41"/>
       <c r="M128" s="37" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="N128" s="37"/>
       <c r="O128" s="37"/>
@@ -9773,7 +9674,7 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="37" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="B129" s="37"/>
       <c r="C129" s="37"/>
@@ -9786,7 +9687,7 @@
       <c r="J129" s="37"/>
       <c r="K129" s="44"/>
       <c r="M129" s="37" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="N129" s="37"/>
       <c r="O129" s="37"/>
@@ -9800,7 +9701,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="37" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="B130" s="37"/>
       <c r="C130" s="37"/>
@@ -9813,7 +9714,7 @@
       <c r="J130" s="37"/>
       <c r="K130" s="44"/>
       <c r="M130" s="37" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="N130" s="37"/>
       <c r="O130" s="37"/>
@@ -9827,7 +9728,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="37" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="B131" s="37"/>
       <c r="C131" s="37"/>
@@ -9840,7 +9741,7 @@
       <c r="J131" s="37"/>
       <c r="K131" s="44"/>
       <c r="M131" s="37" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="N131" s="37"/>
       <c r="O131" s="37"/>
@@ -9854,7 +9755,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="37" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="B132" s="37"/>
       <c r="C132" s="37"/>
@@ -9867,7 +9768,7 @@
       <c r="J132" s="37"/>
       <c r="K132" s="44"/>
       <c r="M132" s="37" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="N132" s="37"/>
       <c r="O132" s="37"/>
@@ -9881,7 +9782,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="37" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="B133" s="37"/>
       <c r="C133" s="37"/>
@@ -9894,7 +9795,7 @@
       <c r="J133" s="37"/>
       <c r="K133" s="44"/>
       <c r="M133" s="37" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="N133" s="37"/>
       <c r="O133" s="37"/>
@@ -9908,7 +9809,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="47" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="B134" s="47"/>
       <c r="C134" s="37"/>
@@ -9921,7 +9822,7 @@
       <c r="J134" s="37"/>
       <c r="K134" s="49"/>
       <c r="M134" s="47" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="N134" s="47"/>
       <c r="O134" s="37"/>
@@ -9935,7 +9836,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="37" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="B135" s="37"/>
       <c r="C135" s="37"/>
@@ -9949,7 +9850,7 @@
       <c r="K135" s="44"/>
       <c r="L135" s="44"/>
       <c r="M135" s="37" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="N135" s="37"/>
       <c r="O135" s="37"/>
@@ -9963,7 +9864,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="37" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="B136" s="37"/>
       <c r="C136" s="37"/>
@@ -9977,7 +9878,7 @@
       <c r="K136" s="44"/>
       <c r="L136" s="44"/>
       <c r="M136" s="37" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="N136" s="37"/>
       <c r="O136" s="37"/>
@@ -9991,7 +9892,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="37" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="B137" s="37"/>
       <c r="C137" s="37"/>
@@ -10005,7 +9906,7 @@
       <c r="K137" s="44"/>
       <c r="L137" s="44"/>
       <c r="M137" s="37" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="N137" s="37"/>
       <c r="O137" s="37"/>
@@ -10019,7 +9920,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="37" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="B138" s="37"/>
       <c r="C138" s="37"/>
@@ -10033,7 +9934,7 @@
       <c r="K138" s="44"/>
       <c r="L138" s="44"/>
       <c r="M138" s="37" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="N138" s="37"/>
       <c r="O138" s="37"/>
@@ -10047,7 +9948,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="37" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="B139" s="37"/>
       <c r="C139" s="37"/>
@@ -10061,7 +9962,7 @@
       <c r="K139" s="44"/>
       <c r="L139" s="44"/>
       <c r="M139" s="37" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="N139" s="37"/>
       <c r="O139" s="37"/>
@@ -10075,7 +9976,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="37" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="B140" s="37"/>
       <c r="C140" s="37"/>
@@ -10089,7 +9990,7 @@
       <c r="K140" s="44"/>
       <c r="L140" s="44"/>
       <c r="M140" s="37" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="N140" s="37"/>
       <c r="O140" s="37"/>
@@ -10103,7 +10004,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="37" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="B141" s="37"/>
       <c r="C141" s="37"/>
@@ -10117,7 +10018,7 @@
       <c r="K141" s="44"/>
       <c r="L141" s="44"/>
       <c r="M141" s="37" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="N141" s="37"/>
       <c r="O141" s="37"/>
@@ -10131,7 +10032,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="37" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="B142" s="37"/>
       <c r="C142" s="37"/>
@@ -10145,7 +10046,7 @@
       <c r="K142" s="44"/>
       <c r="L142" s="44"/>
       <c r="M142" s="37" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="N142" s="37"/>
       <c r="O142" s="37"/>
@@ -10159,7 +10060,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="37" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="B143" s="37"/>
       <c r="C143" s="37"/>
@@ -10173,7 +10074,7 @@
       <c r="K143" s="44"/>
       <c r="L143" s="44"/>
       <c r="M143" s="37" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="N143" s="37"/>
       <c r="O143" s="37"/>
@@ -10187,7 +10088,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="37" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="B144" s="37"/>
       <c r="C144" s="37"/>
@@ -10201,7 +10102,7 @@
       <c r="K144" s="44"/>
       <c r="L144" s="44"/>
       <c r="M144" s="37" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="N144" s="37"/>
       <c r="O144" s="37"/>
@@ -10215,7 +10116,7 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="37" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="B145" s="37"/>
       <c r="C145" s="37"/>
@@ -10229,7 +10130,7 @@
       <c r="K145" s="44"/>
       <c r="L145" s="44"/>
       <c r="M145" s="37" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="N145" s="37"/>
       <c r="O145" s="37"/>
@@ -10243,7 +10144,7 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="37" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="B146" s="37"/>
       <c r="C146" s="37"/>
@@ -10257,7 +10158,7 @@
       <c r="K146" s="44"/>
       <c r="L146" s="44"/>
       <c r="M146" s="37" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="N146" s="37"/>
       <c r="O146" s="37"/>
@@ -10271,7 +10172,7 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="37" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="B147" s="37"/>
       <c r="C147" s="37"/>
@@ -10285,7 +10186,7 @@
       <c r="K147" s="44"/>
       <c r="L147" s="44"/>
       <c r="M147" s="37" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="N147" s="37"/>
       <c r="O147" s="44"/>
@@ -10299,7 +10200,7 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="37" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="B148" s="37"/>
       <c r="C148" s="37"/>
@@ -10313,7 +10214,7 @@
       <c r="K148" s="44"/>
       <c r="L148" s="44"/>
       <c r="M148" s="37" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="N148" s="37"/>
       <c r="O148" s="44"/>
@@ -10327,7 +10228,7 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="37" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="B149" s="37"/>
       <c r="C149" s="37"/>
@@ -10341,7 +10242,7 @@
       <c r="K149" s="44"/>
       <c r="L149" s="44"/>
       <c r="M149" s="37" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="N149" s="37"/>
       <c r="O149" s="44"/>
@@ -10355,7 +10256,7 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="37" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="B150" s="37"/>
       <c r="C150" s="37"/>
@@ -10369,7 +10270,7 @@
       <c r="K150" s="44"/>
       <c r="L150" s="44"/>
       <c r="M150" s="37" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="N150" s="37"/>
       <c r="O150" s="44"/>
@@ -10383,7 +10284,7 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="37" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="B151" s="37"/>
       <c r="C151" s="37"/>
@@ -10397,7 +10298,7 @@
       <c r="K151" s="44"/>
       <c r="L151" s="44"/>
       <c r="M151" s="37" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="N151" s="37"/>
       <c r="O151" s="44"/>
@@ -10411,7 +10312,7 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="37" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="B152" s="37"/>
       <c r="C152" s="37"/>
@@ -10425,7 +10326,7 @@
       <c r="K152" s="44"/>
       <c r="L152" s="44"/>
       <c r="M152" s="37" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="N152" s="37"/>
       <c r="O152" s="44"/>
@@ -10439,7 +10340,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="37" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="B153" s="37"/>
       <c r="C153" s="37"/>
@@ -10453,7 +10354,7 @@
       <c r="K153" s="44"/>
       <c r="L153" s="44"/>
       <c r="M153" s="37" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="N153" s="37"/>
       <c r="O153" s="44"/>
@@ -10467,7 +10368,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="37" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="B154" s="37"/>
       <c r="C154" s="37"/>
@@ -10481,7 +10382,7 @@
       <c r="K154" s="44"/>
       <c r="L154" s="44"/>
       <c r="M154" s="37" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="N154" s="37"/>
       <c r="O154" s="44"/>
@@ -10495,7 +10396,7 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="37" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="B155" s="37"/>
       <c r="C155" s="37"/>
@@ -10509,7 +10410,7 @@
       <c r="K155" s="44"/>
       <c r="L155" s="44"/>
       <c r="M155" s="37" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="N155" s="37"/>
       <c r="O155" s="44"/>
@@ -10523,7 +10424,7 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="B156" s="37"/>
       <c r="C156" s="37"/>
@@ -10537,7 +10438,7 @@
       <c r="K156" s="44"/>
       <c r="L156" s="44"/>
       <c r="M156" s="37" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="N156" s="37"/>
       <c r="O156" s="44"/>
@@ -10551,7 +10452,7 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="B157" s="37"/>
       <c r="C157" s="37"/>
@@ -10565,7 +10466,7 @@
       <c r="K157" s="44"/>
       <c r="L157" s="44"/>
       <c r="M157" s="37" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="N157" s="37"/>
       <c r="O157" s="44"/>
@@ -10579,7 +10480,7 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="B158" s="37"/>
       <c r="C158" s="37"/>
@@ -10593,7 +10494,7 @@
       <c r="K158" s="44"/>
       <c r="L158" s="44"/>
       <c r="M158" s="37" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="N158" s="37"/>
       <c r="O158" s="44"/>
@@ -10607,16 +10508,16 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G160" s="82" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="H160" s="83" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="J160" s="84" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
     </row>
     <row r="161" spans="7:10" x14ac:dyDescent="0.25">
@@ -10628,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="65" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="J161" s="65">
         <v>12</v>
@@ -10643,7 +10544,7 @@
         <v>0</v>
       </c>
       <c r="I162" s="65" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="J162" s="65">
         <v>8</v>
@@ -10651,7 +10552,7 @@
     </row>
     <row r="163" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G163" s="52" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="H163" s="65">
         <f>COUNTIF(V3:AL158,"SFP-10G-LR-S=")</f>
@@ -10666,7 +10567,7 @@
     </row>
     <row r="164" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G164" s="52" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="H164" s="65">
         <f>COUNTIF(V3:AL158,"SFP-10G-SEARCH(R-S=")</f>
@@ -10695,10 +10596,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G91" sqref="G91"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10726,7 +10627,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
-        <v>721</v>
+        <v>686</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -10737,7 +10638,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="134"/>
       <c r="K1" s="131" t="s">
-        <v>722</v>
+        <v>687</v>
       </c>
       <c r="L1" s="132"/>
       <c r="M1" s="132"/>
@@ -10814,7 +10715,7 @@
       <c r="I3" s="86"/>
       <c r="J3" s="87"/>
       <c r="K3" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" s="85"/>
       <c r="M3" s="85"/>
@@ -10826,7 +10727,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B4" s="85"/>
       <c r="C4" s="85"/>
@@ -10838,7 +10739,7 @@
       <c r="I4" s="86"/>
       <c r="J4" s="88"/>
       <c r="K4" s="85" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L4" s="85"/>
       <c r="M4" s="85"/>
@@ -10850,7 +10751,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B5" s="85"/>
       <c r="C5" s="85"/>
@@ -10862,7 +10763,7 @@
       <c r="I5" s="90"/>
       <c r="J5" s="87"/>
       <c r="K5" s="85" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="85"/>
       <c r="M5" s="85"/>
@@ -10874,7 +10775,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B6" s="85"/>
       <c r="C6" s="85"/>
@@ -10886,7 +10787,7 @@
       <c r="I6" s="90"/>
       <c r="J6" s="88"/>
       <c r="K6" s="85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L6" s="85"/>
       <c r="M6" s="85"/>
@@ -10898,7 +10799,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B7" s="85"/>
       <c r="C7" s="85"/>
@@ -10910,7 +10811,7 @@
       <c r="I7" s="90"/>
       <c r="J7" s="87"/>
       <c r="K7" s="85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L7" s="85"/>
       <c r="M7" s="85"/>
@@ -10922,7 +10823,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -10934,7 +10835,7 @@
       <c r="I8" s="86"/>
       <c r="J8" s="88"/>
       <c r="K8" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L8" s="85"/>
       <c r="M8" s="85"/>
@@ -10946,7 +10847,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B9" s="93"/>
       <c r="C9" s="85"/>
@@ -10958,7 +10859,7 @@
       <c r="I9" s="95"/>
       <c r="J9" s="88"/>
       <c r="K9" s="93" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L9" s="85"/>
       <c r="M9" s="93"/>
@@ -10970,7 +10871,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="85"/>
       <c r="C10" s="85"/>
@@ -10982,7 +10883,7 @@
       <c r="I10" s="85"/>
       <c r="J10" s="85"/>
       <c r="K10" s="85" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L10" s="85"/>
       <c r="M10" s="85"/>
@@ -10994,7 +10895,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="85" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
@@ -11006,7 +10907,7 @@
       <c r="I11" s="91"/>
       <c r="J11" s="91"/>
       <c r="K11" s="85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L11" s="85"/>
       <c r="M11" s="85"/>
@@ -11018,7 +10919,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" s="85"/>
       <c r="C12" s="85"/>
@@ -11030,7 +10931,7 @@
       <c r="I12" s="91"/>
       <c r="J12" s="91"/>
       <c r="K12" s="85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L12" s="85"/>
       <c r="M12" s="85"/>
@@ -11042,7 +10943,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B13" s="85"/>
       <c r="C13" s="85"/>
@@ -11054,7 +10955,7 @@
       <c r="I13" s="91"/>
       <c r="J13" s="91"/>
       <c r="K13" s="85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L13" s="85"/>
       <c r="M13" s="85"/>
@@ -11066,7 +10967,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B14" s="85"/>
       <c r="C14" s="85"/>
@@ -11078,7 +10979,7 @@
       <c r="I14" s="91"/>
       <c r="J14" s="91"/>
       <c r="K14" s="85" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L14" s="85"/>
       <c r="M14" s="85"/>
@@ -11090,7 +10991,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="85"/>
       <c r="C15" s="85"/>
@@ -11102,7 +11003,7 @@
       <c r="I15" s="91"/>
       <c r="J15" s="91"/>
       <c r="K15" s="85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L15" s="85"/>
       <c r="M15" s="85"/>
@@ -11114,7 +11015,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B16" s="85"/>
       <c r="C16" s="85"/>
@@ -11126,7 +11027,7 @@
       <c r="I16" s="91"/>
       <c r="J16" s="91"/>
       <c r="K16" s="85" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L16" s="85"/>
       <c r="M16" s="85"/>
@@ -11138,7 +11039,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B17" s="85"/>
       <c r="C17" s="85"/>
@@ -11150,7 +11051,7 @@
       <c r="I17" s="91"/>
       <c r="J17" s="91"/>
       <c r="K17" s="85" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L17" s="85"/>
       <c r="M17" s="85"/>
@@ -11162,7 +11063,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B18" s="85"/>
       <c r="C18" s="85"/>
@@ -11174,7 +11075,7 @@
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
       <c r="K18" s="85" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L18" s="85"/>
       <c r="M18" s="85"/>
@@ -11186,7 +11087,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="85"/>
       <c r="C19" s="85"/>
@@ -11198,7 +11099,7 @@
       <c r="I19" s="91"/>
       <c r="J19" s="91"/>
       <c r="K19" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L19" s="85"/>
       <c r="M19" s="85"/>
@@ -11210,7 +11111,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="85" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B20" s="85"/>
       <c r="C20" s="85"/>
@@ -11222,7 +11123,7 @@
       <c r="I20" s="91"/>
       <c r="J20" s="91"/>
       <c r="K20" s="85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L20" s="85"/>
       <c r="M20" s="85"/>
@@ -11234,7 +11135,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" s="85"/>
       <c r="C21" s="85"/>
@@ -11246,7 +11147,7 @@
       <c r="I21" s="91"/>
       <c r="J21" s="91"/>
       <c r="K21" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L21" s="85"/>
       <c r="M21" s="85"/>
@@ -11258,7 +11159,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="85" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="85"/>
       <c r="C22" s="85"/>
@@ -11270,7 +11171,7 @@
       <c r="I22" s="91"/>
       <c r="J22" s="91"/>
       <c r="K22" s="85" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L22" s="85"/>
       <c r="M22" s="85"/>
@@ -11282,7 +11183,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="85" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="91"/>
@@ -11294,7 +11195,7 @@
       <c r="I23" s="91"/>
       <c r="J23" s="91"/>
       <c r="K23" s="85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L23" s="91"/>
       <c r="M23" s="91"/>
@@ -11306,7 +11207,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24" s="85"/>
       <c r="C24" s="91"/>
@@ -11318,7 +11219,7 @@
       <c r="I24" s="91"/>
       <c r="J24" s="91"/>
       <c r="K24" s="85" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L24" s="91"/>
       <c r="M24" s="91"/>
@@ -11330,7 +11231,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="85"/>
       <c r="C25" s="91"/>
@@ -11342,7 +11243,7 @@
       <c r="I25" s="91"/>
       <c r="J25" s="91"/>
       <c r="K25" s="85" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L25" s="91"/>
       <c r="M25" s="91"/>
@@ -11354,7 +11255,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" s="85"/>
       <c r="C26" s="91"/>
@@ -11366,7 +11267,7 @@
       <c r="I26" s="91"/>
       <c r="J26" s="91"/>
       <c r="K26" s="85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L26" s="91"/>
       <c r="M26" s="91"/>
@@ -11378,7 +11279,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="85"/>
       <c r="C27" s="91"/>
@@ -11390,7 +11291,7 @@
       <c r="I27" s="91"/>
       <c r="J27" s="91"/>
       <c r="K27" s="85" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L27" s="91"/>
       <c r="M27" s="91"/>
@@ -11402,7 +11303,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="85" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="85"/>
       <c r="C28" s="91"/>
@@ -11414,7 +11315,7 @@
       <c r="I28" s="91"/>
       <c r="J28" s="91"/>
       <c r="K28" s="85" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L28" s="91"/>
       <c r="M28" s="91"/>
@@ -11426,7 +11327,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="85"/>
       <c r="C29" s="91"/>
@@ -11438,7 +11339,7 @@
       <c r="I29" s="91"/>
       <c r="J29" s="91"/>
       <c r="K29" s="85" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L29" s="91"/>
       <c r="M29" s="91"/>
@@ -11450,7 +11351,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" s="85"/>
       <c r="C30" s="91"/>
@@ -11462,7 +11363,7 @@
       <c r="I30" s="91"/>
       <c r="J30" s="91"/>
       <c r="K30" s="85" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L30" s="91"/>
       <c r="M30" s="91"/>
@@ -11474,7 +11375,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B31" s="85"/>
       <c r="C31" s="91"/>
@@ -11486,7 +11387,7 @@
       <c r="I31" s="91"/>
       <c r="J31" s="91"/>
       <c r="K31" s="85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L31" s="91"/>
       <c r="M31" s="91"/>
@@ -11498,7 +11399,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="85"/>
       <c r="C32" s="91"/>
@@ -11510,7 +11411,7 @@
       <c r="I32" s="91"/>
       <c r="J32" s="91"/>
       <c r="K32" s="85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L32" s="91"/>
       <c r="M32" s="91"/>
@@ -11522,7 +11423,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="85"/>
       <c r="C33" s="91"/>
@@ -11534,7 +11435,7 @@
       <c r="I33" s="91"/>
       <c r="J33" s="91"/>
       <c r="K33" s="85" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L33" s="91"/>
       <c r="M33" s="91"/>
@@ -11546,7 +11447,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="85" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B34" s="85"/>
       <c r="C34" s="91"/>
@@ -11558,7 +11459,7 @@
       <c r="I34" s="91"/>
       <c r="J34" s="91"/>
       <c r="K34" s="85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L34" s="91"/>
       <c r="M34" s="91"/>
@@ -11570,7 +11471,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="97" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B35" s="98"/>
       <c r="C35" s="99"/>
@@ -11582,7 +11483,7 @@
       <c r="I35" s="101"/>
       <c r="J35" s="102"/>
       <c r="K35" s="103" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L35" s="99"/>
       <c r="M35" s="99"/>
@@ -11594,7 +11495,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B36" s="98"/>
       <c r="C36" s="99"/>
@@ -11606,7 +11507,7 @@
       <c r="I36" s="104"/>
       <c r="J36" s="105"/>
       <c r="K36" s="99" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L36" s="99"/>
       <c r="M36" s="99"/>
@@ -11618,7 +11519,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="98" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B37" s="98"/>
       <c r="C37" s="99"/>
@@ -11630,7 +11531,7 @@
       <c r="I37" s="104"/>
       <c r="J37" s="105"/>
       <c r="K37" s="99" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L37" s="99"/>
       <c r="M37" s="99"/>
@@ -11642,7 +11543,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="98" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B38" s="98"/>
       <c r="C38" s="99"/>
@@ -11654,7 +11555,7 @@
       <c r="I38" s="104"/>
       <c r="J38" s="105"/>
       <c r="K38" s="99" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="L38" s="99"/>
       <c r="M38" s="99"/>
@@ -11666,7 +11567,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="98" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B39" s="98"/>
       <c r="C39" s="99"/>
@@ -11678,7 +11579,7 @@
       <c r="I39" s="104"/>
       <c r="J39" s="105"/>
       <c r="K39" s="99" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L39" s="99"/>
       <c r="M39" s="99"/>
@@ -11690,7 +11591,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="98" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B40" s="98"/>
       <c r="C40" s="99"/>
@@ -11702,7 +11603,7 @@
       <c r="I40" s="104"/>
       <c r="J40" s="105"/>
       <c r="K40" s="99" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L40" s="99"/>
       <c r="M40" s="99"/>
@@ -11714,7 +11615,7 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="107" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B41" s="107"/>
       <c r="C41" s="99"/>
@@ -11726,7 +11627,7 @@
       <c r="I41" s="109"/>
       <c r="J41" s="102"/>
       <c r="K41" s="108" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L41" s="99"/>
       <c r="M41" s="99"/>
@@ -11738,7 +11639,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="98" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B42" s="107"/>
       <c r="C42" s="99"/>
@@ -11750,7 +11651,7 @@
       <c r="I42" s="104"/>
       <c r="J42" s="99"/>
       <c r="K42" s="99" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="L42" s="99"/>
       <c r="M42" s="99"/>
@@ -11762,7 +11663,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="60"/>
@@ -11773,7 +11674,7 @@
       <c r="I43" s="61"/>
       <c r="J43" s="41"/>
       <c r="K43" s="52" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="L43" s="37"/>
       <c r="M43" s="60"/>
@@ -11785,7 +11686,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B44" s="37"/>
       <c r="C44" s="37"/>
@@ -11797,7 +11698,7 @@
       <c r="I44" s="39"/>
       <c r="J44" s="41"/>
       <c r="K44" s="37" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="L44" s="37"/>
       <c r="M44" s="45"/>
@@ -11809,7 +11710,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B45" s="37"/>
       <c r="C45" s="37"/>
@@ -11821,7 +11722,7 @@
       <c r="I45" s="39"/>
       <c r="J45" s="41"/>
       <c r="K45" s="37" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L45" s="37"/>
       <c r="M45" s="42"/>
@@ -11833,7 +11734,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B46" s="37"/>
       <c r="C46" s="37"/>
@@ -11845,7 +11746,7 @@
       <c r="I46" s="39"/>
       <c r="J46" s="41"/>
       <c r="K46" s="37" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
@@ -11857,7 +11758,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B47" s="37"/>
       <c r="C47" s="37"/>
@@ -11869,7 +11770,7 @@
       <c r="I47" s="39"/>
       <c r="J47" s="41"/>
       <c r="K47" s="37" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
@@ -11881,7 +11782,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B48" s="37"/>
       <c r="C48" s="37"/>
@@ -11893,7 +11794,7 @@
       <c r="I48" s="39"/>
       <c r="J48" s="41"/>
       <c r="K48" s="37" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
@@ -11905,7 +11806,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="37"/>
@@ -11917,7 +11818,7 @@
       <c r="I49" s="39"/>
       <c r="J49" s="41"/>
       <c r="K49" s="37" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
@@ -11929,7 +11830,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B50" s="37"/>
       <c r="C50" s="37"/>
@@ -11941,7 +11842,7 @@
       <c r="I50" s="39"/>
       <c r="J50" s="41"/>
       <c r="K50" s="37" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
@@ -12001,7 +11902,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B53" s="37"/>
       <c r="C53" s="37"/>
@@ -12013,7 +11914,7 @@
       <c r="I53" s="39"/>
       <c r="J53" s="41"/>
       <c r="K53" s="37" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L53" s="37"/>
       <c r="M53" s="37"/>
@@ -12025,7 +11926,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B54" s="37"/>
       <c r="C54" s="37"/>
@@ -12037,7 +11938,7 @@
       <c r="I54" s="39"/>
       <c r="J54" s="41"/>
       <c r="K54" s="37" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="L54" s="37"/>
       <c r="M54" s="37"/>
@@ -12049,7 +11950,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B55" s="37"/>
       <c r="C55" s="37"/>
@@ -12061,7 +11962,7 @@
       <c r="I55" s="39"/>
       <c r="J55" s="41"/>
       <c r="K55" s="37" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L55" s="37"/>
       <c r="M55" s="37"/>
@@ -12073,7 +11974,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="37" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B56" s="37"/>
       <c r="C56" s="37"/>
@@ -12085,7 +11986,7 @@
       <c r="I56" s="39"/>
       <c r="J56" s="41"/>
       <c r="K56" s="37" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="L56" s="37"/>
       <c r="M56" s="37"/>
@@ -12097,7 +11998,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B57" s="37"/>
       <c r="C57" s="37"/>
@@ -12109,7 +12010,7 @@
       <c r="I57" s="39"/>
       <c r="J57" s="41"/>
       <c r="K57" s="37" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L57" s="37"/>
       <c r="M57" s="37"/>
@@ -12121,7 +12022,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B58" s="37"/>
       <c r="C58" s="37"/>
@@ -12133,7 +12034,7 @@
       <c r="I58" s="39"/>
       <c r="J58" s="41"/>
       <c r="K58" s="37" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="L58" s="37"/>
       <c r="M58" s="37"/>
@@ -12145,7 +12046,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="37" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B59" s="37"/>
       <c r="C59" s="37"/>
@@ -12157,7 +12058,7 @@
       <c r="I59" s="39"/>
       <c r="J59" s="41"/>
       <c r="K59" s="37" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37"/>
@@ -12169,7 +12070,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B60" s="37"/>
       <c r="C60" s="37"/>
@@ -12181,7 +12082,7 @@
       <c r="I60" s="39"/>
       <c r="J60" s="41"/>
       <c r="K60" s="37" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="L60" s="37"/>
       <c r="M60" s="37"/>
@@ -12241,7 +12142,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="98" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B63" s="98"/>
       <c r="C63" s="112"/>
@@ -12253,7 +12154,7 @@
       <c r="I63" s="113"/>
       <c r="J63" s="41"/>
       <c r="K63" s="114" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L63" s="112"/>
       <c r="M63" s="112"/>
@@ -12265,7 +12166,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="98" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B64" s="98"/>
       <c r="C64" s="115"/>
@@ -12277,7 +12178,7 @@
       <c r="I64" s="118"/>
       <c r="J64" s="119"/>
       <c r="K64" s="115" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="L64" s="115"/>
       <c r="M64" s="115"/>
@@ -12289,7 +12190,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="98" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B65" s="98"/>
       <c r="C65" s="115"/>
@@ -12301,7 +12202,7 @@
       <c r="I65" s="120"/>
       <c r="J65" s="119"/>
       <c r="K65" s="115" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="L65" s="115"/>
       <c r="M65" s="115"/>
@@ -12313,7 +12214,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="98" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B66" s="98"/>
       <c r="C66" s="115"/>
@@ -12325,7 +12226,7 @@
       <c r="I66" s="120"/>
       <c r="J66" s="119"/>
       <c r="K66" s="115" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L66" s="115"/>
       <c r="M66" s="115"/>
@@ -12337,7 +12238,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="98" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B67" s="98"/>
       <c r="C67" s="115"/>
@@ -12349,7 +12250,7 @@
       <c r="I67" s="120"/>
       <c r="J67" s="119"/>
       <c r="K67" s="115" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="L67" s="115"/>
       <c r="M67" s="115"/>
@@ -12361,7 +12262,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="98" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="B68" s="98"/>
       <c r="C68" s="115"/>
@@ -12373,7 +12274,7 @@
       <c r="I68" s="120"/>
       <c r="J68" s="119"/>
       <c r="K68" s="115" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="L68" s="115"/>
       <c r="M68" s="115"/>
@@ -12385,7 +12286,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="98" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="B69" s="98"/>
       <c r="C69" s="115"/>
@@ -12397,7 +12298,7 @@
       <c r="I69" s="120"/>
       <c r="J69" s="119"/>
       <c r="K69" s="115" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="L69" s="115"/>
       <c r="M69" s="115"/>
@@ -12409,7 +12310,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="98" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="B70" s="98"/>
       <c r="C70" s="115"/>
@@ -12421,7 +12322,7 @@
       <c r="I70" s="120"/>
       <c r="J70" s="119"/>
       <c r="K70" s="115" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="L70" s="115"/>
       <c r="M70" s="115"/>
@@ -12433,7 +12334,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="98" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="B71" s="98"/>
       <c r="C71" s="112"/>
@@ -12445,7 +12346,7 @@
       <c r="I71" s="113"/>
       <c r="J71" s="121"/>
       <c r="K71" s="114" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="L71" s="112"/>
       <c r="M71" s="112"/>
@@ -12457,7 +12358,7 @@
     </row>
     <row r="72" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="98" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="B72" s="98"/>
       <c r="C72" s="115"/>
@@ -12469,7 +12370,7 @@
       <c r="I72" s="120"/>
       <c r="J72" s="119"/>
       <c r="K72" s="115" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="L72" s="115"/>
       <c r="M72" s="115"/>
@@ -12481,7 +12382,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="98" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B73" s="98"/>
       <c r="C73" s="115"/>
@@ -12493,7 +12394,7 @@
       <c r="I73" s="120"/>
       <c r="J73" s="119"/>
       <c r="K73" s="115" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="L73" s="115"/>
       <c r="M73" s="115"/>
@@ -12505,7 +12406,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="98" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="B74" s="98"/>
       <c r="C74" s="115"/>
@@ -12517,7 +12418,7 @@
       <c r="I74" s="115"/>
       <c r="J74" s="119"/>
       <c r="K74" s="115" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="L74" s="115"/>
       <c r="M74" s="115"/>
@@ -12529,7 +12430,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="B75" s="37"/>
       <c r="C75" s="37"/>
@@ -12541,7 +12442,7 @@
       <c r="I75" s="37"/>
       <c r="J75" s="41"/>
       <c r="K75" s="37" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="L75" s="37"/>
       <c r="M75" s="37"/>
@@ -12553,7 +12454,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
       <c r="B76" s="37"/>
       <c r="C76" s="37"/>
@@ -12565,7 +12466,7 @@
       <c r="I76" s="37"/>
       <c r="J76" s="41"/>
       <c r="K76" s="37" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="L76" s="37"/>
       <c r="M76" s="37"/>
@@ -12577,7 +12478,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="B77" s="37"/>
       <c r="C77" s="37"/>
@@ -12589,7 +12490,7 @@
       <c r="I77" s="37"/>
       <c r="J77" s="41"/>
       <c r="K77" s="37" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="L77" s="37"/>
       <c r="M77" s="37"/>
@@ -12601,7 +12502,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B78" s="37"/>
       <c r="C78" s="37"/>
@@ -12613,7 +12514,7 @@
       <c r="I78" s="37"/>
       <c r="J78" s="41"/>
       <c r="K78" s="47" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="L78" s="37"/>
       <c r="M78" s="37"/>
@@ -12625,7 +12526,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="B79" s="37"/>
       <c r="C79" s="37"/>
@@ -12637,7 +12538,7 @@
       <c r="I79" s="37"/>
       <c r="J79" s="41"/>
       <c r="K79" s="52" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="L79" s="37"/>
       <c r="M79" s="37"/>
@@ -12649,7 +12550,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="B80" s="37"/>
       <c r="C80" s="37"/>
@@ -12661,7 +12562,7 @@
       <c r="I80" s="37"/>
       <c r="J80" s="41"/>
       <c r="K80" s="37" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="L80" s="37"/>
       <c r="M80" s="37"/>
@@ -12673,7 +12574,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>452</v>
+        <v>426</v>
       </c>
       <c r="B81" s="37"/>
       <c r="C81" s="37"/>
@@ -12684,7 +12585,7 @@
       <c r="H81" s="44"/>
       <c r="I81" s="44"/>
       <c r="K81" s="37" t="s">
-        <v>453</v>
+        <v>427</v>
       </c>
       <c r="L81" s="37"/>
       <c r="M81" s="44"/>
@@ -12696,7 +12597,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>454</v>
+        <v>428</v>
       </c>
       <c r="B82" s="37"/>
       <c r="C82" s="37"/>
@@ -12707,7 +12608,7 @@
       <c r="H82" s="44"/>
       <c r="I82" s="44"/>
       <c r="K82" s="37" t="s">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="L82" s="37"/>
       <c r="M82" s="44"/>
@@ -12719,7 +12620,7 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="B83" s="37"/>
       <c r="C83" s="37"/>
@@ -12730,7 +12631,7 @@
       <c r="H83" s="44"/>
       <c r="I83" s="44"/>
       <c r="K83" s="37" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
       <c r="L83" s="37"/>
       <c r="M83" s="44"/>
@@ -12742,7 +12643,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="B84" s="37"/>
       <c r="C84" s="37"/>
@@ -12753,7 +12654,7 @@
       <c r="H84" s="44"/>
       <c r="I84" s="44"/>
       <c r="K84" s="37" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="L84" s="37"/>
       <c r="M84" s="44"/>
@@ -12765,7 +12666,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="B85" s="37"/>
       <c r="C85" s="37"/>
@@ -12776,7 +12677,7 @@
       <c r="H85" s="44"/>
       <c r="I85" s="44"/>
       <c r="K85" s="37" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="L85" s="37"/>
       <c r="M85" s="44"/>
@@ -12788,7 +12689,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
@@ -12799,7 +12700,7 @@
       <c r="H86" s="44"/>
       <c r="I86" s="44"/>
       <c r="K86" s="47" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="L86" s="37"/>
       <c r="M86" s="49"/>
@@ -12811,16 +12712,16 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F89" s="122" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="G89" s="83" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="H89" s="83" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="I89" s="83" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
@@ -12849,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="65" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="I91" s="65">
         <f>G91*2</f>
@@ -12858,7 +12759,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F92" s="52" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="G92" s="65">
         <f>COUNTIF(R3:AL86,"SFP-10G-LR-S=")</f>
@@ -12875,7 +12776,7 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F93" s="52" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="G93" s="65">
         <f>COUNTIF(R3:AL86,"SFP-10G-SR-S=")</f>
@@ -12896,7 +12797,7 @@
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12907,7 +12808,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F22" sqref="F22"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12935,7 +12836,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="131" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -12946,7 +12847,7 @@
       <c r="H1" s="132"/>
       <c r="I1" s="134"/>
       <c r="K1" s="131" t="s">
-        <v>724</v>
+        <v>685</v>
       </c>
       <c r="L1" s="132"/>
       <c r="M1" s="132"/>
@@ -13013,12 +12914,8 @@
       <c r="A3" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>344</v>
-      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -13027,7 +12924,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="40"/>
       <c r="K3" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
@@ -13039,14 +12936,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>347</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
@@ -13055,7 +12948,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="41"/>
       <c r="K4" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37"/>
@@ -13067,14 +12960,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>350</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
@@ -13083,7 +12972,7 @@
       <c r="I5" s="43"/>
       <c r="J5" s="40"/>
       <c r="K5" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37"/>
@@ -13095,14 +12984,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>354</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
       <c r="F6" s="42"/>
@@ -13111,7 +12996,7 @@
       <c r="I6" s="43"/>
       <c r="J6" s="41"/>
       <c r="K6" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
@@ -13123,14 +13008,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>357</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="45"/>
@@ -13139,7 +13020,7 @@
       <c r="I7" s="43"/>
       <c r="J7" s="40"/>
       <c r="K7" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
@@ -13151,14 +13032,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>353</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>360</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="45"/>
@@ -13167,7 +13044,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="41"/>
       <c r="K8" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
@@ -13179,14 +13056,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>364</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B9" s="47"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
       <c r="F9" s="45"/>
@@ -13195,7 +13068,7 @@
       <c r="I9" s="50"/>
       <c r="J9" s="41"/>
       <c r="K9" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -13207,14 +13080,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>367</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
       <c r="F10" s="45"/>
@@ -13223,7 +13092,7 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
@@ -13235,14 +13104,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>363</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>404</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
       <c r="F11" s="45"/>
@@ -13251,7 +13116,7 @@
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
       <c r="K11" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L11" s="37"/>
       <c r="M11" s="37"/>
@@ -13263,14 +13128,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>408</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="45"/>
@@ -13279,7 +13140,7 @@
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
       <c r="K12" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L12" s="37"/>
       <c r="M12" s="37"/>
@@ -13291,14 +13152,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>411</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="46"/>
@@ -13307,7 +13164,7 @@
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
@@ -13319,14 +13176,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>414</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="46"/>
@@ -13335,7 +13188,7 @@
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
       <c r="K14" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
@@ -13347,14 +13200,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>418</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="46"/>
@@ -13363,7 +13212,7 @@
       <c r="I15" s="44"/>
       <c r="J15" s="44"/>
       <c r="K15" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -13375,14 +13224,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>421</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="46"/>
@@ -13391,7 +13236,7 @@
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
       <c r="K16" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
@@ -13403,14 +13248,10 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>424</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="46"/>
@@ -13419,7 +13260,7 @@
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
@@ -13431,14 +13272,10 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>430</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="46"/>
@@ -13447,7 +13284,7 @@
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
       <c r="K18" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
@@ -13459,14 +13296,10 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>433</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
       <c r="F19" s="46"/>
@@ -13475,7 +13308,7 @@
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
       <c r="K19" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -13487,14 +13320,10 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>436</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>437</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
       <c r="F20" s="46"/>
@@ -13503,7 +13332,7 @@
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
       <c r="K20" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -13515,12 +13344,10 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B21" s="37"/>
-      <c r="C21" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C21" s="44"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
       <c r="F21" s="44"/>
@@ -13529,7 +13356,7 @@
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L21" s="44"/>
       <c r="M21" s="37"/>
@@ -13541,12 +13368,10 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B22" s="37"/>
-      <c r="C22" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C22" s="44"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="44"/>
@@ -13555,7 +13380,7 @@
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
       <c r="K22" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L22" s="44"/>
       <c r="M22" s="37"/>
@@ -13567,12 +13392,10 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B23" s="37"/>
-      <c r="C23" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C23" s="44"/>
       <c r="D23" s="37"/>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
@@ -13581,7 +13404,7 @@
       <c r="I23" s="44"/>
       <c r="J23" s="44"/>
       <c r="K23" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L23" s="44"/>
       <c r="M23" s="44"/>
@@ -13593,12 +13416,10 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B24" s="37"/>
-      <c r="C24" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C24" s="44"/>
       <c r="D24" s="37"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
@@ -13607,7 +13428,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L24" s="44"/>
       <c r="M24" s="44"/>
@@ -13619,12 +13440,10 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B25" s="37"/>
-      <c r="C25" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="37"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
@@ -13633,7 +13452,7 @@
       <c r="I25" s="44"/>
       <c r="J25" s="44"/>
       <c r="K25" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L25" s="44"/>
       <c r="M25" s="44"/>
@@ -13645,12 +13464,10 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B26" s="37"/>
-      <c r="C26" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C26" s="44"/>
       <c r="D26" s="37"/>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
@@ -13659,7 +13476,7 @@
       <c r="I26" s="44"/>
       <c r="J26" s="44"/>
       <c r="K26" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44"/>
@@ -13671,12 +13488,10 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27" s="37"/>
-      <c r="C27" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C27" s="44"/>
       <c r="D27" s="37"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
@@ -13685,7 +13500,7 @@
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
       <c r="K27" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="44"/>
@@ -13697,12 +13512,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="37"/>
-      <c r="C28" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C28" s="44"/>
       <c r="D28" s="37"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
@@ -13711,7 +13524,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
       <c r="K28" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L28" s="44"/>
       <c r="M28" s="44"/>
@@ -13723,12 +13536,10 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B29" s="37"/>
-      <c r="C29" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C29" s="44"/>
       <c r="D29" s="37"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
@@ -13737,7 +13548,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
       <c r="K29" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L29" s="44"/>
       <c r="M29" s="44"/>
@@ -13749,12 +13560,10 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B30" s="37"/>
-      <c r="C30" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C30" s="44"/>
       <c r="D30" s="37"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
@@ -13763,7 +13572,7 @@
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
       <c r="K30" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L30" s="44"/>
       <c r="M30" s="44"/>
@@ -13775,12 +13584,10 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B31" s="37"/>
-      <c r="C31" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C31" s="44"/>
       <c r="D31" s="37"/>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
@@ -13789,7 +13596,7 @@
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L31" s="44"/>
       <c r="M31" s="44"/>
@@ -13801,12 +13608,10 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="37"/>
-      <c r="C32" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C32" s="44"/>
       <c r="D32" s="37"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
@@ -13815,7 +13620,7 @@
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L32" s="44"/>
       <c r="M32" s="44"/>
@@ -13827,14 +13632,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
-        <v>713</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C33" s="68" t="s">
-        <v>472</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="68"/>
       <c r="E33" s="68"/>
       <c r="F33" s="68"/>
@@ -13843,7 +13644,7 @@
       <c r="I33" s="69"/>
       <c r="J33" s="44"/>
       <c r="K33" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L33" s="68"/>
       <c r="M33" s="68"/>
@@ -13855,14 +13656,10 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="52" t="s">
-        <v>714</v>
-      </c>
-      <c r="B34" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="C34" s="72" t="s">
-        <v>473</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="B34" s="65"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="72"/>
       <c r="E34" s="72"/>
       <c r="F34" s="72"/>
@@ -13871,7 +13668,7 @@
       <c r="I34" s="73"/>
       <c r="J34" s="44"/>
       <c r="K34" s="52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L34" s="72"/>
       <c r="M34" s="72"/>
@@ -13883,14 +13680,10 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="C35" s="123" t="s">
-        <v>475</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="123"/>
       <c r="E35" s="123"/>
       <c r="F35" s="124"/>
@@ -13899,7 +13692,7 @@
       <c r="I35" s="125"/>
       <c r="J35" s="41"/>
       <c r="K35" s="52" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="L35" s="123"/>
       <c r="M35" s="123"/>
@@ -13911,14 +13704,10 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>477</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>471</v>
-      </c>
-      <c r="C36" s="123" t="s">
-        <v>475</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="123"/>
       <c r="E36" s="123"/>
       <c r="F36" s="123"/>
@@ -13927,7 +13716,7 @@
       <c r="I36" s="125"/>
       <c r="J36" s="62"/>
       <c r="K36" s="52" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="L36" s="123"/>
       <c r="M36" s="123"/>
@@ -13939,12 +13728,10 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="B37" s="37"/>
-      <c r="C37" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C37" s="44"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
@@ -13953,7 +13740,7 @@
       <c r="I37" s="39"/>
       <c r="J37" s="62"/>
       <c r="K37" s="37" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="L37" s="44"/>
       <c r="M37" s="37"/>
@@ -13965,12 +13752,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="B38" s="37"/>
-      <c r="C38" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C38" s="44"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -13979,7 +13764,7 @@
       <c r="I38" s="39"/>
       <c r="J38" s="62"/>
       <c r="K38" s="37" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="L38" s="44"/>
       <c r="M38" s="37"/>
@@ -13991,12 +13776,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="B39" s="37"/>
-      <c r="C39" s="44" t="s">
-        <v>440</v>
-      </c>
+      <c r="C39" s="44"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -14005,7 +13788,7 @@
       <c r="I39" s="39"/>
       <c r="J39" s="62"/>
       <c r="K39" s="37" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="L39" s="44"/>
       <c r="M39" s="37"/>
@@ -14017,14 +13800,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>485</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>486</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B40" s="62"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="68"/>
       <c r="E40" s="68"/>
       <c r="F40" s="68"/>
@@ -14033,7 +13812,7 @@
       <c r="I40" s="69"/>
       <c r="J40" s="62"/>
       <c r="K40" s="37" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="L40" s="68"/>
       <c r="M40" s="68"/>
@@ -14045,14 +13824,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>488</v>
-      </c>
-      <c r="B41" s="126" t="s">
-        <v>471</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>489</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="B41" s="126"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="72"/>
       <c r="E41" s="72"/>
       <c r="F41" s="72"/>
@@ -14061,7 +13836,7 @@
       <c r="I41" s="73"/>
       <c r="J41" s="41"/>
       <c r="K41" s="52" t="s">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="L41" s="72"/>
       <c r="M41" s="72"/>
@@ -14073,14 +13848,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
-        <v>491</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>471</v>
-      </c>
-      <c r="C42" s="72" t="s">
-        <v>492</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="B42" s="62"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="72"/>
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
@@ -14089,7 +13860,7 @@
       <c r="I42" s="73"/>
       <c r="J42" s="37"/>
       <c r="K42" s="52" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="L42" s="72"/>
       <c r="M42" s="72"/>
@@ -14101,14 +13872,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>494</v>
-      </c>
-      <c r="B43" s="127" t="s">
-        <v>471</v>
-      </c>
-      <c r="C43" s="123" t="s">
-        <v>475</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="B43" s="127"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="123"/>
       <c r="E43" s="123"/>
       <c r="F43" s="123"/>
@@ -14116,7 +13883,7 @@
       <c r="H43" s="123"/>
       <c r="I43" s="123"/>
       <c r="K43" s="52" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="L43" s="123"/>
       <c r="M43" s="123"/>
@@ -14128,14 +13895,10 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>496</v>
-      </c>
-      <c r="B44" s="127" t="s">
-        <v>471</v>
-      </c>
-      <c r="C44" s="123" t="s">
-        <v>497</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B44" s="127"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="123"/>
       <c r="E44" s="123"/>
       <c r="F44" s="123"/>
@@ -14143,7 +13906,7 @@
       <c r="H44" s="123"/>
       <c r="I44" s="123"/>
       <c r="K44" s="52" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="L44" s="123"/>
       <c r="M44" s="123"/>
@@ -14155,79 +13918,53 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F47" s="122" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="H47" s="83" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
       <c r="I47" s="83" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F48" s="52" t="s">
-        <v>157</v>
-      </c>
+      <c r="F48" s="52"/>
       <c r="G48" s="65">
         <f>COUNTIF(R3:AL44,"QSFP-40G-LR4-S=")</f>
         <v>0</v>
       </c>
-      <c r="H48" s="65" t="s">
-        <v>468</v>
-      </c>
-      <c r="I48" s="65">
-        <v>4</v>
-      </c>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F49" s="52" t="s">
-        <v>181</v>
-      </c>
+      <c r="F49" s="52"/>
       <c r="G49" s="65">
         <f>COUNTIF(R3:AL44,"QSFP-40G-SR-BD=")</f>
         <v>0</v>
       </c>
-      <c r="H49" s="65" t="s">
-        <v>468</v>
-      </c>
-      <c r="I49" s="65">
-        <v>4</v>
-      </c>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50" s="52" t="s">
-        <v>469</v>
-      </c>
+      <c r="F50" s="52"/>
       <c r="G50" s="65">
         <f>COUNTIF(R3:AL44,"SFP-10G-LR-S=")</f>
         <v>0</v>
       </c>
-      <c r="H50" s="65">
-        <f>G50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="65">
-        <f>H50+G50</f>
-        <v>0</v>
-      </c>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51" s="52" t="s">
-        <v>470</v>
-      </c>
+      <c r="F51" s="52"/>
       <c r="G51" s="65">
         <f>COUNTIF(R3:AL44,"SFP-10G-SR-S=")</f>
         <v>0</v>
       </c>
-      <c r="H51" s="65" t="s">
-        <v>468</v>
-      </c>
-      <c r="I51" s="65">
-        <v>4</v>
-      </c>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
